--- a/Buck/schematic_complete/Buck/BOM3.xlsx
+++ b/Buck/schematic_complete/Buck/BOM3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张小虎\Desktop\INSA\5 année\Projet inter\Projet_inter_Equipe1-master\Buck\schematic_complete\Buck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ecole\insa\5A\Projet\Projet_inter_Equipe1\Buck\schematic_complete\Buck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB493613-9D8C-4F34-A7E1-5A35011D5FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C853CF2-9B6E-4027-92AE-C3E1D0824C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{62806743-844F-4547-8039-266B17FB7C28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{62806743-844F-4547-8039-266B17FB7C28}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="178">
   <si>
     <t>Description</t>
   </si>
@@ -873,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,8 +1004,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,47 +1040,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1074,7 +1062,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2258,7 +2246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2563,24 +2551,24 @@
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
@@ -2621,7 +2609,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>137</v>
       </c>
@@ -2654,7 +2642,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>157</v>
       </c>
@@ -2690,7 +2678,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>137</v>
       </c>
@@ -2723,7 +2711,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>137</v>
       </c>
@@ -2755,7 +2743,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>137</v>
       </c>
@@ -2788,7 +2776,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>137</v>
       </c>
@@ -2821,7 +2809,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
         <v>137</v>
       </c>
@@ -2854,7 +2842,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
         <v>137</v>
       </c>
@@ -2887,7 +2875,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>137</v>
       </c>
@@ -2918,7 +2906,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>137</v>
       </c>
@@ -2949,7 +2937,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>137</v>
       </c>
@@ -2980,7 +2968,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>137</v>
       </c>
@@ -3011,7 +2999,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>137</v>
       </c>
@@ -3042,7 +3030,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>137</v>
       </c>
@@ -3073,7 +3061,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>157</v>
       </c>
@@ -3113,7 +3101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>137</v>
       </c>
@@ -3146,7 +3134,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>137</v>
       </c>
@@ -3179,7 +3167,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>137</v>
       </c>
@@ -3212,7 +3200,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>137</v>
       </c>
@@ -3243,7 +3231,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>137</v>
       </c>
@@ -3274,7 +3262,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>137</v>
       </c>
@@ -3305,7 +3293,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>137</v>
       </c>
@@ -3336,7 +3324,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>137</v>
       </c>
@@ -3369,7 +3357,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="56" t="s">
         <v>177</v>
       </c>
@@ -3402,7 +3390,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>137</v>
       </c>
@@ -3435,7 +3423,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>137</v>
       </c>
@@ -3468,7 +3456,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>137</v>
       </c>
@@ -3501,7 +3489,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
         <v>137</v>
       </c>
@@ -3534,7 +3522,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
         <v>137</v>
       </c>
@@ -3565,7 +3553,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>157</v>
       </c>
@@ -3605,7 +3593,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>137</v>
       </c>
@@ -3636,7 +3624,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>137</v>
       </c>
@@ -3667,7 +3655,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
         <v>137</v>
       </c>
@@ -3698,7 +3686,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>157</v>
       </c>
@@ -3733,7 +3721,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>137</v>
       </c>
@@ -3750,13 +3738,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="60" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C37" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="60"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D37" s="67"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C39" s="44" t="s">
         <v>140</v>
       </c>
@@ -3773,433 +3761,273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F909E83C-75DF-4574-80D9-CDFC6EC68C02}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
-        <v>139</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="M1" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2</v>
-      </c>
-      <c r="H2" s="66" t="s">
+      <c r="G2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="69">
+      <c r="H2" s="62">
         <v>1.4</v>
       </c>
-      <c r="J2" s="70">
-        <f t="shared" ref="J2:J11" si="0">I2*G2</f>
+      <c r="I2" s="63">
+        <f t="shared" ref="I2:I7" si="0">H2*F2</f>
         <v>2.8</v>
       </c>
+      <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="66" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="E3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="G3" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="13">
+      <c r="H3" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J3" s="67">
+      <c r="I3" s="61">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="66" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="D4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="8">
+      <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="G4" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="69">
+      <c r="H4" s="62">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J4" s="70">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>0.84000000000000008</v>
       </c>
+      <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="48">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="46">
-        <v>0.39</v>
-      </c>
-      <c r="J5" s="72">
-        <f t="shared" si="0"/>
-        <v>0.39</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="69">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J6" s="70">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
-      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="13">
+        <v>1.62</v>
+      </c>
+      <c r="I5" s="61">
+        <f t="shared" si="0"/>
+        <v>1.62</v>
+      </c>
+      <c r="J5" s="64">
+        <v>3282173</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="I6" s="61">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="8">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="13">
-        <v>1.62</v>
-      </c>
-      <c r="J7" s="67">
-        <f t="shared" si="0"/>
-        <v>1.62</v>
-      </c>
-      <c r="K7" s="73">
-        <v>3282173</v>
+      <c r="G7" s="8"/>
+      <c r="H7" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="I7" s="61">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2294755</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0.17</v>
-      </c>
-      <c r="J8" s="67">
-        <f t="shared" si="0"/>
-        <v>0.17</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="J9" s="67">
-        <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="K9" s="9">
-        <v>2294755</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M9" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="13">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="J10" s="67">
-        <f t="shared" si="0"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="48">
-        <v>1</v>
-      </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="46">
-        <v>0.78</v>
-      </c>
-      <c r="J11" s="72">
-        <f t="shared" si="0"/>
-        <v>0.78</v>
-      </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="M11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4214,24 +4042,24 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="33.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>106</v>
       </c>
@@ -4263,19 +4091,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
       <c r="L3" t="str">
         <f>A3</f>
         <v>Power components</v>
@@ -4285,7 +4113,7 @@
         <v>0.3498973305954825</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>114</v>
       </c>
@@ -4327,7 +4155,7 @@
         <v>0.31540041067761809</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>33</v>
       </c>
@@ -4367,7 +4195,7 @@
         <v>8.3778234086242298E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
@@ -4409,7 +4237,7 @@
         <v>3.347022587268994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>64</v>
       </c>
@@ -4449,7 +4277,7 @@
         <v>7.6180698151950707E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>59</v>
       </c>
@@ -4489,7 +4317,7 @@
         <v>9.2813141683778244E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>93</v>
       </c>
@@ -4529,7 +4357,7 @@
         <v>4.8459958932238194E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>71</v>
       </c>
@@ -4563,7 +4391,7 @@
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>36</v>
       </c>
@@ -4595,7 +4423,7 @@
         <v>5.9548254620123194E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>71</v>
       </c>
@@ -4629,7 +4457,7 @@
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>71</v>
       </c>
@@ -4663,7 +4491,7 @@
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>100</v>
       </c>
@@ -4695,7 +4523,7 @@
         <v>3.9014373716632442E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>5</v>
       </c>
@@ -4729,7 +4557,7 @@
         <v>1.1498973305954827E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>5</v>
       </c>
@@ -4763,7 +4591,7 @@
         <v>5.7494866529774133E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
@@ -4797,7 +4625,7 @@
         <v>2.8336755646817244E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I18" s="42">
         <f>SUM(I4:I17)</f>
         <v>17.04</v>
@@ -4807,24 +4635,24 @@
         <v>0.3498973305954825</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J19" s="38"/>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="61" t="s">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="38"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>116</v>
       </c>
@@ -4855,13 +4683,13 @@
         <f t="shared" si="0"/>
         <v>8.0082135523613963E-3</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>7448042001</v>
       </c>
@@ -4894,13 +4722,13 @@
         <f t="shared" si="0"/>
         <v>0.23388090349075974</v>
       </c>
-      <c r="L22" s="65" t="s">
+      <c r="L22" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>49</v>
       </c>
@@ -4933,13 +4761,13 @@
         <f t="shared" si="0"/>
         <v>5.6262833675564686E-2</v>
       </c>
-      <c r="L23" s="65" t="s">
+      <c r="L23" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>5</v>
       </c>
@@ -4972,13 +4800,13 @@
         <f t="shared" si="0"/>
         <v>1.724845995893224E-2</v>
       </c>
-      <c r="L24" s="64" t="s">
+      <c r="L24" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -4996,24 +4824,24 @@
         <v>0.31540041067761809</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J26" s="38"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="61" t="s">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="38"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>59</v>
       </c>
@@ -5045,7 +4873,7 @@
         <v>1.5400410677618069E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>97</v>
       </c>
@@ -5077,7 +4905,7 @@
         <v>1.6427104722792608E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>44</v>
       </c>
@@ -5109,7 +4937,7 @@
         <v>1.6016427104722793E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>31</v>
       </c>
@@ -5141,7 +4969,7 @@
         <v>3.9014373716632442E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>5</v>
       </c>
@@ -5175,7 +5003,7 @@
         <v>1.1498973305954827E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>5</v>
       </c>
@@ -5209,7 +5037,7 @@
         <v>5.7494866529774133E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>11</v>
       </c>
@@ -5243,7 +5071,7 @@
         <v>1.4784394250513345E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -5261,24 +5089,24 @@
         <v>8.3778234086242298E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J36" s="38"/>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="61" t="s">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
       <c r="J37" s="38"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>71</v>
       </c>
@@ -5312,7 +5140,7 @@
         <v>6.9815195071868588E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>5</v>
       </c>
@@ -5346,7 +5174,7 @@
         <v>1.1498973305954827E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>71</v>
       </c>
@@ -5380,7 +5208,7 @@
         <v>6.9815195071868588E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
         <v>61</v>
       </c>
@@ -5412,7 +5240,7 @@
         <v>8.0082135523613963E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I42" s="39">
         <f>SUM(I38:I41)</f>
         <v>1.6300000000000003</v>
@@ -5422,24 +5250,24 @@
         <v>3.347022587268994E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J43" s="38"/>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="61" t="s">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="63"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="71"/>
       <c r="J44" s="38"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>100</v>
       </c>
@@ -5471,7 +5299,7 @@
         <v>7.8028747433264885E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>36</v>
       </c>
@@ -5503,7 +5331,7 @@
         <v>5.9548254620123194E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>95</v>
       </c>
@@ -5535,7 +5363,7 @@
         <v>2.3408624229979462E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>71</v>
       </c>
@@ -5569,7 +5397,7 @@
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>11</v>
       </c>
@@ -5603,7 +5431,7 @@
         <v>1.4784394250513345E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>71</v>
       </c>
@@ -5637,7 +5465,7 @@
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>5</v>
       </c>
@@ -5671,7 +5499,7 @@
         <v>5.7494866529774133E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
         <v>5</v>
       </c>
@@ -5705,7 +5533,7 @@
         <v>1.1498973305954827E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I53" s="39">
         <f>SUM(I45:I52)</f>
         <v>3.7099999999999995</v>
@@ -5715,24 +5543,24 @@
         <v>7.6180698151950707E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J54" s="38"/>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="61" t="s">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="63"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="71"/>
       <c r="J55" s="38"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>91</v>
       </c>
@@ -5764,7 +5592,7 @@
         <v>3.9014373716632439E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>66</v>
       </c>
@@ -5798,7 +5626,7 @@
         <v>3.5318275154004104E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>71</v>
       </c>
@@ -5832,7 +5660,7 @@
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>71</v>
       </c>
@@ -5866,7 +5694,7 @@
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>5</v>
       </c>
@@ -5900,7 +5728,7 @@
         <v>5.7494866529774133E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
         <v>5</v>
       </c>
@@ -5934,7 +5762,7 @@
         <v>5.7494866529774133E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I62" s="39">
         <f>SUM(I56:I61)</f>
         <v>4.5200000000000005</v>
@@ -5944,24 +5772,24 @@
         <v>9.2813141683778244E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J63" s="38"/>
     </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="61" t="s">
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="63"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="71"/>
       <c r="J64" s="38"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>87</v>
       </c>
@@ -5993,7 +5821,7 @@
         <v>1.2320328542094455E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>71</v>
       </c>
@@ -6027,7 +5855,7 @@
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>57</v>
       </c>
@@ -6059,7 +5887,7 @@
         <v>6.1601642710472282E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
         <v>41</v>
       </c>
@@ -6091,7 +5919,7 @@
         <v>3.7577002053388091E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I69" s="39">
         <f>SUM(I65:I68)</f>
         <v>2.3600000000000003</v>
@@ -6101,10 +5929,10 @@
         <v>4.8459958932238194E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J70" s="38"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
         <v>153</v>
       </c>
@@ -6119,17 +5947,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A27:I27"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="L22:N22"/>
     <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Buck/schematic_complete/Buck/BOM3.xlsx
+++ b/Buck/schematic_complete/Buck/BOM3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ecole\insa\5A\Projet\Projet_inter_Equipe1\Buck\schematic_complete\Buck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张小虎\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C853CF2-9B6E-4027-92AE-C3E1D0824C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7C932C-5499-44BE-8AEF-6EBE44071B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{62806743-844F-4547-8039-266B17FB7C28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{62806743-844F-4547-8039-266B17FB7C28}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="183">
   <si>
     <t>Description</t>
   </si>
@@ -572,13 +572,28 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>963-GMK212BJ224KGHT</t>
+  </si>
+  <si>
+    <t>184-3868</t>
+  </si>
+  <si>
+    <t>2905462RL</t>
+  </si>
+  <si>
+    <t>80-C0805S272K5RAUTO</t>
+  </si>
+  <si>
+    <t>652-CHP0805AFX10R0EL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +652,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -873,7 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,9 +1055,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1040,11 +1064,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1062,7 +1091,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2246,7 +2275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3764,7 +3793,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3852,8 +3881,10 @@
         <f t="shared" ref="I2:I7" si="0">H2*F2</f>
         <v>2.8</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74" t="s">
+        <v>160</v>
+      </c>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3885,9 +3916,15 @@
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="J3" s="9">
+        <v>3273589</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
@@ -3918,8 +3955,12 @@
         <f t="shared" si="0"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="74" t="s">
+        <v>181</v>
+      </c>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3988,8 +4029,12 @@
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="73">
+        <v>3464663</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>182</v>
+      </c>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4031,6 +4076,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4093,17 +4139,17 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
       <c r="L3" t="str">
         <f>A3</f>
         <v>Power components</v>
@@ -4639,17 +4685,17 @@
       <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="71"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
       <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -4800,11 +4846,11 @@
         <f t="shared" si="0"/>
         <v>1.724845995893224E-2</v>
       </c>
-      <c r="L24" s="68" t="s">
+      <c r="L24" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -4828,17 +4874,17 @@
       <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5093,17 +5139,17 @@
       <c r="J36" s="38"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="71"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="70"/>
       <c r="J37" s="38"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -5254,17 +5300,17 @@
       <c r="J43" s="38"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="71"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="70"/>
       <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5547,17 +5593,17 @@
       <c r="J54" s="38"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="71"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="70"/>
       <c r="J55" s="38"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5776,17 +5822,17 @@
       <c r="J63" s="38"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="71"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="70"/>
       <c r="J64" s="38"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -5947,17 +5993,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A27:I27"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="L22:N22"/>
     <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
